--- a/results/phenotyping/histogram_flowering_time_Brassica_F1.xlsx
+++ b/results/phenotyping/histogram_flowering_time_Brassica_F1.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rutger.vos/Documents/local-projects/brassica-snps/results/phenotyping/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2447F4F7-758D-7040-A17C-76C3D6B22AC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1560" windowWidth="31380" windowHeight="22200"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="31380" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grafiek1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$23</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -103,7 +113,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -121,7 +131,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,7 +157,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -170,7 +180,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +206,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -246,7 +256,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -264,7 +274,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,19 +285,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -295,35 +305,35 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="5" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -439,7 +449,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,7 +465,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -468,60 +478,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Days after flowering of F1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>  population used for BSA</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0490221466611122"/>
-          <c:y val="0.0906960556844548"/>
-          <c:w val="0.950977853338888"/>
-          <c:h val="0.860120028499918"/>
+          <c:x val="7.7609819605645031E-3"/>
+          <c:y val="1.1545797856655462E-2"/>
+          <c:w val="0.98833815916612211"/>
+          <c:h val="0.89404166316470246"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -549,14 +516,15 @@
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -570,14 +538,15 @@
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -591,14 +560,15 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -612,14 +582,15 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -633,14 +604,15 @@
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:srgbClr val="92D050"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -654,14 +626,15 @@
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
-                  <a:srgbClr val="FFC000"/>
+                  <a:srgbClr val="92D050"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -677,16 +650,15 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -702,16 +674,15 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -727,16 +698,15 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -752,16 +722,15 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -777,16 +746,15 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -802,16 +770,15 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -827,16 +794,15 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -852,16 +818,15 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001B-3ED6-2A4A-A3BA-C367B1026FA9}"/>
               </c:ext>
@@ -877,16 +842,15 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000" cap="sq">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001D-3ED6-2A4A-A3BA-C367B1026FA9}"/>
               </c:ext>
@@ -900,12 +864,15 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="127000">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000020-BDF5-8C4D-A1E7-8A133957FBA5}"/>
               </c:ext>
@@ -919,14 +886,39 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="127000">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-A03A-2B4B-B017-82E3E7E2B2CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="127000">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000028-F471-0745-9D64-76E3B31A5391}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -938,14 +930,15 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="127000">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-A03A-2B4B-B017-82E3E7E2B2CA}"/>
               </c:ext>
@@ -959,12 +952,15 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:ln w="6350">
-                <a:noFill/>
+              <a:ln w="127000">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000025-3ED6-2A4A-A3BA-C367B1026FA9}"/>
               </c:ext>
@@ -978,17 +974,63 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:ln w="127000">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-3ED6-2A4A-A3BA-C367B1026FA9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="127000">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-F471-0745-9D64-76E3B31A5391}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-3ED6-2A4A-A3BA-C367B1026FA9}"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
-          </c:dPt>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
@@ -996,70 +1038,70 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>113.0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135.0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154.0</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>163.0</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>176.0</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189.0</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>194.0</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>204.0</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>217.0</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>224.0</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>232.0</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>239.0</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>247.0</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>293.0</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>294.0</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>315.0</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>328.0</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>456.0</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,75 +1113,75 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A03A-2B4B-B017-82E3E7E2B2CA}"/>
             </c:ext>
@@ -1166,9 +1208,9 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1183,11 +1225,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1207,63 +1249,22 @@
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="10.0"/>
+        <c:majorUnit val="10"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="-2014594648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="11.0"/>
-          <c:min val="0.0"/>
+          <c:max val="11"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="-2014598136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
@@ -1309,12 +1310,13 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -1323,10 +1325,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9205369" cy="5616980"/>
+    <xdr:ext cx="9205665" cy="5615896"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1387,70 +1395,18 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Arial">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Arial" panose="020B0604020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="굴림"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1474,23 +1430,41 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="굴림"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1635,29 +1609,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="1" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
@@ -1674,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="4">
         <v>43067</v>
       </c>
@@ -1691,7 +1665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="51">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1683,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" spans="1:7" ht="51">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1701,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="51">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1719,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="34">
       <c r="A6" s="4">
         <v>43108</v>
       </c>
@@ -1762,7 +1736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="4">
         <v>43117</v>
       </c>
@@ -1830,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="4">
         <v>43148</v>
       </c>
@@ -1898,7 +1872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="4">
         <v>43186</v>
       </c>
@@ -1915,7 +1889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="4">
         <v>43193</v>
       </c>
@@ -1932,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="4">
         <v>43201</v>
       </c>
@@ -1983,7 +1957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="77">
+    <row r="20" spans="1:7" ht="68">
       <c r="A20" s="4">
         <v>43248</v>
       </c>
@@ -2000,7 +1974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="17">
       <c r="A21" s="4">
         <v>43269</v>
       </c>
@@ -2018,7 +1992,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="29">
         <v>43282</v>
       </c>
@@ -2036,7 +2010,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="22">
         <v>43380</v>
       </c>
@@ -2073,7 +2047,7 @@
       <c r="B26" s="15"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="19" t="s">
         <v>27</v>
       </c>
@@ -2090,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="61">
+    <row r="28" spans="1:7" ht="68">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2107,7 +2081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45">
+    <row r="29" spans="1:7" ht="51">
       <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
@@ -2124,7 +2098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="76">
+    <row r="30" spans="1:7" ht="68">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2141,7 +2115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="17">
       <c r="A31" s="4">
         <v>43201</v>
       </c>
@@ -2192,7 +2166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="77">
+    <row r="34" spans="1:5" ht="68">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -2209,7 +2183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="17">
       <c r="A35" s="4">
         <v>43269</v>
       </c>
@@ -2226,7 +2200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="17">
       <c r="A36" s="4">
         <v>43282</v>
       </c>
@@ -2243,7 +2217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="17">
       <c r="A37" s="22">
         <v>43380</v>
       </c>
